--- a/res/excel/filtry-i-sortowanie.xlsx
+++ b/res/excel/filtry-i-sortowanie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kowalskikrz\LO\res\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB90CBC-B319-4B35-BCD4-BFEC78D817CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{347A922A-980D-480C-8B4E-969253338A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2842,7 +2842,7 @@
   <dimension ref="A1:R201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J207" sqref="J207"/>
+      <selection activeCell="I98" sqref="I98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2857,6 +2857,7 @@
     <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.28515625" customWidth="1"/>
     <col min="12" max="12" width="14.42578125" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" customWidth="1"/>
     <col min="14" max="14" width="12.28515625" customWidth="1"/>
     <col min="15" max="15" width="22.140625" customWidth="1"/>
     <col min="16" max="16" width="14.42578125" customWidth="1"/>
